--- a/src/main/java/reports/a.xlsx
+++ b/src/main/java/reports/a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loyd_\IdeaProjects\petstac\src\main\java\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA513656-3D4E-4BEC-A39D-E798F9324504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F25D3B9-D0E0-4D9F-B860-ECAC1F9BE967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60855" yWindow="9630" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12370" yWindow="7900" windowWidth="21600" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Copied Data" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
   <si>
     <t>a</t>
   </si>
   <si>
     <t>Number</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -470,8 +473,11 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <f t="shared" ref="A3:A8" si="0">COUNTA(B5:P5)</f>
-        <v>0</v>
+        <f t="shared" ref="A5:A8" si="0">COUNTA(B5:P5)</f>
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -483,7 +489,10 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">

--- a/src/main/java/reports/a.xlsx
+++ b/src/main/java/reports/a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loyd_\IdeaProjects\petstac\src\main\java\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F25D3B9-D0E0-4D9F-B860-ECAC1F9BE967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4554E8C-4AF5-464B-A3BD-310EC416B25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12370" yWindow="7900" windowWidth="21600" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5380" yWindow="6130" windowWidth="21600" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Copied Data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="5">
   <si>
     <t>a</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -416,7 +422,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E11" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -453,19 +459,40 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>COUNTA(B2:P2)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>COUNTA(B3:P3)</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>COUNTA(B4:P4)</f>
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
       </c>
       <c r="I4" t="s">
         <v>0</v>
@@ -474,10 +501,7 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" ref="A5:A8" si="0">COUNTA(B5:P5)</f>
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -489,10 +513,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
